--- a/biology/Médecine/Agence_mondiale_antidopage/Agence_mondiale_antidopage.xlsx
+++ b/biology/Médecine/Agence_mondiale_antidopage/Agence_mondiale_antidopage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agence mondiale antidopage (AMA ; en anglais : World Anti-Doping Agency, WADA) est une fondation internationale indépendante, chargée de promouvoir, coordonner et superviser la lutte contre le dopage dans le sport. Elle a été créée le 10 novembre 1999. Son bureau principal est à Montréal.
 Initialement financée intégralement par le Comité international olympique (CIO), l'AMA est financée à parts égales, depuis 2002, par le CIO et les gouvernements. Ses instances de décision sont composées, à parts égales, de représentants du mouvement sportif (sportifs compris) et des gouvernements. Les activités principales de l'agence comprennent la recherche scientifique, l'éducation, l'élaboration de programmes antidopage et la surveillance du respect du Code mondial antidopage, le document harmonisant les règles liées au dopage dans tous les sports et dans tous les pays. L'AMA publie également chaque année la Liste des substances et méthodes interdites.
@@ -513,7 +525,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Dick Pound, représentant le Mouvement olympique, de 1999 à 2007.
  John Fahey, représentant les gouvernements, de 2008 à 2013.
@@ -546,11 +560,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au lendemain de l'affaire Festina qui a secoué le microcosme sportif avec la révélation que le dopage sévissait à grande échelle dans le cyclisme, le CIO a décidé de réunir tout le milieu sportif et les gouvernements pour mettre fin à ce mal qu'est le dopage. Cette conférence s'est déroulée à Lausanne en Suisse les 2 et 4 février 1999 et a fait l'objet d'un texte écrit dit Déclaration de Lausanne sur le dopage dans le sport. Cette déclaration a pris effet immédiatement et donné lieu à la création d'une agence internationale antidopage indépendante, opérationnelle dès les JO de Sydney en 2000.
 L'Agence a ouvert ses portes le 10 novembre 1999 à Lausanne pour promouvoir et coordonner la lutte contre le dopage. Elle est basée sur une représentation égale entre les pouvoirs publics et le mouvement olympique.
-En 2001, l'AMA a décidé d'installer son bureau principal à Montréal, inauguré en 2002. En décembre 2019 l'agence, à l'unanimité du comité exécutif a décidé d'exclure pour quatre ans la Russie des Jeux Olympiques et de tous les championnats du monde pour falsification des données de contrôle remises à l'agence[1].
+En 2001, l'AMA a décidé d'installer son bureau principal à Montréal, inauguré en 2002. En décembre 2019 l'agence, à l'unanimité du comité exécutif a décidé d'exclure pour quatre ans la Russie des Jeux Olympiques et de tous les championnats du monde pour falsification des données de contrôle remises à l'agence.
 </t>
         </is>
       </c>
@@ -579,14 +595,16 @@
           <t>Code mondial antidopage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Code mondial antidopage harmonise les règles liées au dopage dans tous les sports et dans tous les pays. Il est entré en vigueur en janvier 2004 et a été adopté par les organisations sportives olympiques avant les Jeux olympiques de 2004, à d'Athènes. Plus de 650 organisations sportives (fédérations sportives internationales, organisations nationales antidopage, Comité international olympique, Comité international paralympique, un certain nombre de ligues professionnelles dans divers pays, etc.) ont adopté le Code à ce jour.
 Au terme d'une vaste procédure de consultation, des révisions du Code mondial antidopage ont été unanimement adoptées lors de la troisième Conférence mondiale sur le dopage dans le sport en novembre 2007. Celles-ci incorporent l'expérience acquise dans le cadre de l'application du Code original. Ces amendements, qui incluent un certain nombre de mesures renforçant la lutte contre le dopage dans le monde entier (comme le système du whereabouts, procédure par laquelle les sportifs doivent préciser trois mois à l'avance les lieux où l'on peut procéder à des contrôles inopinés), sont entrées en vigueur le 1er janvier 2009.
 En 2013, de nouveaux amendements au Code ont été approuvés, doublant la sanction pour une première infraction où le dopage intentionnel est établi, mais permettant des sanctions plus clémentes pour les violations de règles par inadvertance ou pour les athlètes coopérant avec les agences antidopage. Le code mis à jour est entré en vigueur le 1er janvier 2015.
 Le 16 novembre 2017, le Conseil de fondation de l’AMA a lancé le processus de révision du Code 2021, qui comportait en parallèle une révision des standards internationaux connexes. Depuis, les parties concernées ont eu de multiples occasions d’apporter des contributions et de formuler des recommandations sur la manière de renforcer davantage le programme mondial antidopage.
 À la suite du processus de révision, les partenaires ont été invités à intervenir publiquement au sujet des versions proposées du Code et des Standards durant la Cinquième Conférence mondiale sur le dopage dans le sport de l'AMA à Katowice en Pologne – une occasion que plus de 70 organisations partenaires ont saisie – avant que le Code et l’ensemble complet de Standards soient approuvés par le Conseil et le Comité exécutif, respectivement.
-Le Code mondial antidopage 2021 est entré en vigueur le 1er janvier 2021[2].
+Le Code mondial antidopage 2021 est entré en vigueur le 1er janvier 2021.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Convention internationale de l'UNESCO</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Convention internationale de l'UNESCO contre le dopage dans le sport est le premier traité universel contre le dopage dans le sport. Elle a été adoptée à l'unanimité des 191 États présents à la Conférence générale de l'UNESCO en octobre 2005 et est entrée en vigueur en février 2007.
 La Convention de l'UNESCO est un instrument juridique qui permet aux gouvernements d'aligner leurs lois et règlements nationaux sur le Code, harmonisant ainsi les règles liées au dopage dans le sport. La Convention formalise l'engagement des gouvernements contre le dopage dans le sport, en particulier en facilitant les contrôles et en soutenant les programmes de contrôle nationaux; en encourageant la mise en place de bonnes pratiques dans l'étiquetage, la fabrication et la distribution de produits pouvant contenir des substances interdites ; en interrompant leur soutien financier envers les organisations et individus faisant usage de dopage ou l'appuyant ; en prenant des mesures contre le trafic de substances ; en encourageant la mise en place de codes de conduite dans les professions liées au sport et à la lutte contre le dopage ; ou encore en subventionnant des programmes de sensibilisation et d'éducation.
@@ -650,17 +670,56 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Organisations nationales
-Pour les associations des Jeux du Commonwealth, sachant déjà que 54 comités olympiques font office d'association.
+          <t>Organisations nationales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour les associations des Jeux du Commonwealth, sachant déjà que 54 comités olympiques font office d'association.
 Associations de comité
 Association des comités nationaux olympiques d'Afrique (ANOCA)
 Comités olympiques européens (EOC)
 Organisation sportive sud-américaine (ODESUR )
 Conseil olympique d'Asie (OCA)
 Panam Sports
-Union des comités nationaux olympiques arabes (UANOC)
-Organisations sportives
-Autres sports en dehors du mouvement olympique
+Union des comités nationaux olympiques arabes (UANOC)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agence_mondiale_antidopage</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agence_mondiale_antidopage</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Signataires du Code</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Organisations sportives</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Autres sports en dehors du mouvement olympique
 Bowls – World Bowls
 Cheerleading (IFC) – International Federation of Cheerleading
 Dance (WDC) - World Dance Council
@@ -688,9 +747,43 @@
 IWRF - International Wheelchair Rugby Federation
 WPV - World ParaVolley
 DIBF - Deaf International Basketball Federation
-ISIHF - International Standing Ice Hockey Federation
-Organisations multisports
-CACSO - Central American and Caribbean Sports Organization
+ISIHF - International Standing Ice Hockey Federation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agence_mondiale_antidopage</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agence_mondiale_antidopage</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Signataires du Code</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Organisations multisports</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CACSO - Central American and Caribbean Sports Organization
 CGF - Commonwealth Games Federation
 CIJM - International Committee for the Mediterranean Games
 CISM - International Military Sports Council
